--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fgf13-Scn8a.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fgf13-Scn8a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.220909517624285</v>
+        <v>0.1618966666666667</v>
       </c>
       <c r="H2">
-        <v>0.220909517624285</v>
+        <v>0.48569</v>
       </c>
       <c r="I2">
-        <v>0.09701580488949064</v>
+        <v>0.05772118441983191</v>
       </c>
       <c r="J2">
-        <v>0.09701580488949064</v>
+        <v>0.07937737569103212</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.62443311738004</v>
+        <v>0.176815</v>
       </c>
       <c r="N2">
-        <v>0.62443311738004</v>
+        <v>0.5304450000000001</v>
       </c>
       <c r="O2">
-        <v>0.6125529487339902</v>
+        <v>0.1330539037058915</v>
       </c>
       <c r="P2">
-        <v>0.6125529487339902</v>
+        <v>0.1509470526417335</v>
       </c>
       <c r="Q2">
-        <v>0.1379432187490532</v>
+        <v>0.02862575911666667</v>
       </c>
       <c r="R2">
-        <v>0.1379432187490532</v>
+        <v>0.25763183205</v>
       </c>
       <c r="S2">
-        <v>0.05942731735885896</v>
+        <v>0.007680028913586322</v>
       </c>
       <c r="T2">
-        <v>0.05942731735885896</v>
+        <v>0.01198178090699688</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,123 +584,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.220909517624285</v>
+        <v>0.1618966666666667</v>
       </c>
       <c r="H3">
-        <v>0.220909517624285</v>
+        <v>0.48569</v>
       </c>
       <c r="I3">
-        <v>0.09701580488949064</v>
+        <v>0.05772118441983191</v>
       </c>
       <c r="J3">
-        <v>0.09701580488949064</v>
+        <v>0.07937737569103212</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.39496139973167</v>
+        <v>0.679503</v>
       </c>
       <c r="N3">
-        <v>0.39496139973167</v>
+        <v>2.038509</v>
       </c>
       <c r="O3">
-        <v>0.3874470512660098</v>
+        <v>0.5113283755895394</v>
       </c>
       <c r="P3">
-        <v>0.3874470512660098</v>
+        <v>0.5800920459871381</v>
       </c>
       <c r="Q3">
-        <v>0.08725073229493563</v>
+        <v>0.11000927069</v>
       </c>
       <c r="R3">
-        <v>0.08725073229493563</v>
+        <v>0.9900834362099999</v>
       </c>
       <c r="S3">
-        <v>0.03758848753063168</v>
+        <v>0.02951447946649688</v>
       </c>
       <c r="T3">
-        <v>0.03758848753063168</v>
+        <v>0.04604618426970054</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.05613717467415</v>
+        <v>0.1618966666666667</v>
       </c>
       <c r="H4">
-        <v>2.05613717467415</v>
+        <v>0.48569</v>
       </c>
       <c r="I4">
-        <v>0.9029841951105093</v>
+        <v>0.05772118441983191</v>
       </c>
       <c r="J4">
-        <v>0.9029841951105093</v>
+        <v>0.07937737569103212</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.62443311738004</v>
+        <v>0.4725795</v>
       </c>
       <c r="N4">
-        <v>0.62443311738004</v>
+        <v>0.945159</v>
       </c>
       <c r="O4">
-        <v>0.6125529487339902</v>
+        <v>0.355617720704569</v>
       </c>
       <c r="P4">
-        <v>0.6125529487339902</v>
+        <v>0.2689609013711284</v>
       </c>
       <c r="Q4">
-        <v>1.283920145742767</v>
+        <v>0.07650904578499999</v>
       </c>
       <c r="R4">
-        <v>1.283920145742767</v>
+        <v>0.45905427471</v>
       </c>
       <c r="S4">
-        <v>0.5531256313751313</v>
+        <v>0.0205266760397487</v>
       </c>
       <c r="T4">
-        <v>0.5531256313751313</v>
+        <v>0.02134941051433469</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +708,371 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.3472393333333333</v>
+      </c>
+      <c r="H5">
+        <v>1.041718</v>
+      </c>
+      <c r="I5">
+        <v>0.123801595238647</v>
+      </c>
+      <c r="J5">
+        <v>0.1702502440859614</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.176815</v>
+      </c>
+      <c r="N5">
+        <v>0.5304450000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.1330539037058915</v>
+      </c>
+      <c r="P5">
+        <v>0.1509470526417335</v>
+      </c>
+      <c r="Q5">
+        <v>0.06139712272333334</v>
+      </c>
+      <c r="R5">
+        <v>0.55257410451</v>
+      </c>
+      <c r="S5">
+        <v>0.0164722855315187</v>
+      </c>
+      <c r="T5">
+        <v>0.0256987725563116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.3472393333333333</v>
+      </c>
+      <c r="H6">
+        <v>1.041718</v>
+      </c>
+      <c r="I6">
+        <v>0.123801595238647</v>
+      </c>
+      <c r="J6">
+        <v>0.1702502440859614</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.679503</v>
+      </c>
+      <c r="N6">
+        <v>2.038509</v>
+      </c>
+      <c r="O6">
+        <v>0.5113283755895394</v>
+      </c>
+      <c r="P6">
+        <v>0.5800920459871381</v>
+      </c>
+      <c r="Q6">
+        <v>0.235950168718</v>
+      </c>
+      <c r="R6">
+        <v>2.123551518462</v>
+      </c>
+      <c r="S6">
+        <v>0.06330326858877101</v>
+      </c>
+      <c r="T6">
+        <v>0.09876081242163502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.3472393333333333</v>
+      </c>
+      <c r="H7">
+        <v>1.041718</v>
+      </c>
+      <c r="I7">
+        <v>0.123801595238647</v>
+      </c>
+      <c r="J7">
+        <v>0.1702502440859614</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.4725795</v>
+      </c>
+      <c r="N7">
+        <v>0.945159</v>
+      </c>
+      <c r="O7">
+        <v>0.355617720704569</v>
+      </c>
+      <c r="P7">
+        <v>0.2689609013711284</v>
+      </c>
+      <c r="Q7">
+        <v>0.164098190527</v>
+      </c>
+      <c r="R7">
+        <v>0.9845891431619999</v>
+      </c>
+      <c r="S7">
+        <v>0.04402604111835726</v>
+      </c>
+      <c r="T7">
+        <v>0.0457906591080148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>2.05613717467415</v>
-      </c>
-      <c r="H5">
-        <v>2.05613717467415</v>
-      </c>
-      <c r="I5">
-        <v>0.9029841951105093</v>
-      </c>
-      <c r="J5">
-        <v>0.9029841951105093</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.39496139973167</v>
-      </c>
-      <c r="N5">
-        <v>0.39496139973167</v>
-      </c>
-      <c r="O5">
-        <v>0.3874470512660098</v>
-      </c>
-      <c r="P5">
-        <v>0.3874470512660098</v>
-      </c>
-      <c r="Q5">
-        <v>0.8120948165496235</v>
-      </c>
-      <c r="R5">
-        <v>0.8120948165496235</v>
-      </c>
-      <c r="S5">
-        <v>0.349858563735378</v>
-      </c>
-      <c r="T5">
-        <v>0.349858563735378</v>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.295669</v>
+      </c>
+      <c r="H8">
+        <v>4.591338</v>
+      </c>
+      <c r="I8">
+        <v>0.8184772203415212</v>
+      </c>
+      <c r="J8">
+        <v>0.7503723802230066</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.176815</v>
+      </c>
+      <c r="N8">
+        <v>0.5304450000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.1330539037058915</v>
+      </c>
+      <c r="P8">
+        <v>0.1509470526417335</v>
+      </c>
+      <c r="Q8">
+        <v>0.4059087142350001</v>
+      </c>
+      <c r="R8">
+        <v>2.43545228541</v>
+      </c>
+      <c r="S8">
+        <v>0.1089015892607865</v>
+      </c>
+      <c r="T8">
+        <v>0.1132664991784251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.295669</v>
+      </c>
+      <c r="H9">
+        <v>4.591338</v>
+      </c>
+      <c r="I9">
+        <v>0.8184772203415212</v>
+      </c>
+      <c r="J9">
+        <v>0.7503723802230066</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.679503</v>
+      </c>
+      <c r="N9">
+        <v>2.038509</v>
+      </c>
+      <c r="O9">
+        <v>0.5113283755895394</v>
+      </c>
+      <c r="P9">
+        <v>0.5800920459871381</v>
+      </c>
+      <c r="Q9">
+        <v>1.559913972507</v>
+      </c>
+      <c r="R9">
+        <v>9.359483835042001</v>
+      </c>
+      <c r="S9">
+        <v>0.4185106275342715</v>
+      </c>
+      <c r="T9">
+        <v>0.4352850492958026</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.295669</v>
+      </c>
+      <c r="H10">
+        <v>4.591338</v>
+      </c>
+      <c r="I10">
+        <v>0.8184772203415212</v>
+      </c>
+      <c r="J10">
+        <v>0.7503723802230066</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.4725795</v>
+      </c>
+      <c r="N10">
+        <v>0.945159</v>
+      </c>
+      <c r="O10">
+        <v>0.355617720704569</v>
+      </c>
+      <c r="P10">
+        <v>0.2689609013711284</v>
+      </c>
+      <c r="Q10">
+        <v>1.0848861081855</v>
+      </c>
+      <c r="R10">
+        <v>4.339544432742001</v>
+      </c>
+      <c r="S10">
+        <v>0.291065003546463</v>
+      </c>
+      <c r="T10">
+        <v>0.2018208317487789</v>
       </c>
     </row>
   </sheetData>
